--- a/results/tables/performance/per_class_recall_transposed.xlsx
+++ b/results/tables/performance/per_class_recall_transposed.xlsx
@@ -485,10 +485,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.1366666666666667</v>
+        <v>0.137</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.17</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.1166666666666667</v>
+        <v>0.117</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.1133333333333333</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.4316546762589928</v>
+        <v>0.432</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.4244604316546763</v>
+        <v>0.424</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.4064748201438849</v>
+        <v>0.406</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.341726618705036</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +563,16 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.9311246730601569</v>
+        <v>0.931</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.9261551874455101</v>
+        <v>0.926</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9476024411508283</v>
+        <v>0.948</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9343504795117699</v>
+        <v>0.9340000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.429</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.314</v>
       </c>
       <c r="D5" s="7" t="n">
-        <v>0.2571428571428571</v>
+        <v>0.257</v>
       </c>
       <c r="E5" s="7" t="n">
         <v>0.2</v>
@@ -601,16 +601,16 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.5872437971952535</v>
+        <v>0.587</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.587108953613808</v>
+        <v>0.587</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5628371089536138</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5791531823085221</v>
+        <v>0.579</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +620,16 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
-        <v>0.5201793721973094</v>
+        <v>0.52</v>
       </c>
       <c r="C7" s="7" t="n">
-        <v>0.3587443946188341</v>
+        <v>0.359</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>0.515695067264574</v>
+        <v>0.516</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.5112107623318386</v>
+        <v>0.511</v>
       </c>
     </row>
   </sheetData>

--- a/results/tables/performance/per_class_recall_transposed.xlsx
+++ b/results/tables/performance/per_class_recall_transposed.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,10 +485,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -499,22 +500,27 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>RESNET101</t>
+          <t>CONVNEXT_TINY</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>RESNET152</t>
+          <t>DENSENET121</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>RESNET18</t>
+          <t>EFFICIENTNET_B3</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>RESNET34</t>
+          <t>RESNET50</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>SWIN_TINY</t>
         </is>
       </c>
     </row>
@@ -525,16 +531,19 @@
         </is>
       </c>
       <c r="B2" s="5" t="n">
-        <v>0.137</v>
+        <v>0.123</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>0.117</v>
+        <v>0.183</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.113</v>
+        <v>0.143</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.163</v>
       </c>
     </row>
     <row r="3">
@@ -544,16 +553,19 @@
         </is>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.432</v>
+        <v>0.511</v>
       </c>
       <c r="C3" s="7" t="n">
-        <v>0.424</v>
+        <v>0.423</v>
       </c>
       <c r="D3" s="7" t="n">
-        <v>0.406</v>
+        <v>0.288</v>
       </c>
       <c r="E3" s="7" t="n">
-        <v>0.342</v>
+        <v>0.423</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>0.468</v>
       </c>
     </row>
     <row r="4">
@@ -563,16 +575,19 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.931</v>
+        <v>0.952</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.926</v>
+        <v>0.951</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.948</v>
+        <v>0.965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.954</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.951</v>
       </c>
     </row>
     <row r="5">
@@ -582,16 +597,19 @@
         </is>
       </c>
       <c r="B5" s="7" t="n">
-        <v>0.429</v>
+        <v>0.2</v>
       </c>
       <c r="C5" s="7" t="n">
-        <v>0.314</v>
+        <v>0.229</v>
       </c>
       <c r="D5" s="7" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="F5" s="7" t="n">
         <v>0.257</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -601,16 +619,19 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>0.587</v>
+        <v>0.603</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.587</v>
+        <v>0.602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.579</v>
+        <v>0.591</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.616</v>
       </c>
     </row>
     <row r="7">
@@ -620,16 +641,19 @@
         </is>
       </c>
       <c r="B7" s="7" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="C7" s="7" t="n">
         <v>0.52</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>0.359</v>
-      </c>
       <c r="D7" s="7" t="n">
-        <v>0.516</v>
+        <v>0.435</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.511</v>
+        <v>0.552</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>0.547</v>
       </c>
     </row>
   </sheetData>
